--- a/FichesTemps/JeanPhilippeBelval 2.xlsx
+++ b/FichesTemps/JeanPhilippeBelval 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\GitHub\Rooftop\FichesTemps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D63A91-D4E1-4FBB-B9A9-CC73A6F6ADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790C9772-211F-45A5-BF25-D501E5C688CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="99">
   <si>
     <t>Feuille de temps - 420-6DY-HY Projets</t>
   </si>
@@ -427,14 +427,26 @@
   <si>
     <t>Planification avec l'équipe et rédaction d'un message aux clients</t>
   </si>
+  <si>
+    <t>Je crois avoir très bien travaillé cette semaine, j'ai pu organisé l'envoi du courriel au client avec les membres de mon équipe basé sur leur remarque. De plus, sur plusieurs tâches, j'ai pu complété avant le temps accordé.</t>
+  </si>
+  <si>
+    <t>Karl écoute très bien, mais ne participe pas toujours aux discussions d'équipe, il n'a pas vraiment d'opinion. Cependant, il travaille toujours au maximum de sa capacité, il persévère et effectue le travail qu'on lui demande.</t>
+  </si>
+  <si>
+    <t>Maxime a produit un travail de très bonne qualité cette semaine. Il n'emet pas toujours d'opinion et je crois que l'équipe gagnerait à l'entendre davantage.</t>
+  </si>
+  <si>
+    <t>Victor fait un travail de très bonne qualité, il est conscient de l'importance de notre projet. Cependant, il a tendance à ne pas assez écouter l'opinion des autres.</t>
+  </si>
+  <si>
+    <t>Louis ne s'est pas beaucoup impliqué dans les prises de décisions de l'équipe. Son travail était de bonne qualité, mais il ne dépassait pas les attentes et il ne prenait pas d'initiatives.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,7 +870,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -867,7 +879,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -925,6 +937,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -937,15 +958,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1682,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,11 +1771,11 @@
       <c r="C8" s="50"/>
       <c r="D8" s="18" t="str">
         <f>_xlfn.CONCAT("Évaluateur = ",Évaluateur!F14," ",Évaluateur!D30,CHAR(10),'Coéquipier 1'!D9:I9," ",'Coéquipier 1'!D10:I10," = ",'Coéquipier 1'!F11:I25," ",'Coéquipier 1'!D27:I27,CHAR(10),'Coéquipier 2'!D9:I9," ",'Coéquipier 2'!D10:I10," = ",'Coéquipier 2'!F11:I25,CHAR(10),'Coéquipier 3'!D9:I9," ",'Coéquipier 3'!D10:I10," = ",'Coéquipier 3'!F11:I25,CHAR(10),'Coéquipier 4'!D9:I9," ",'Coéquipier 4'!D10:I10," = ",'Coéquipier 4'!F11:I25,CHAR(10),'Coéquipier 5'!D9:I9," ",'Coéquipier 5'!D10:I10," = ",'Coéquipier 5'!F11:I25)</f>
-        <v>Évaluateur = 75 
-Karl Mainville = 75 
-Maxime Aubin = 75
-Victor Turgeon = 75
-Louis Garceau = 75
+        <v>Évaluateur = 74 Je crois avoir très bien travaillé cette semaine, j'ai pu organisé l'envoi du courriel au client avec les membres de mon équipe basé sur leur remarque. De plus, sur plusieurs tâches, j'ai pu complété avant le temps accordé.
+Karl Mainville = 72 Karl écoute très bien, mais ne participe pas toujours aux discussions d'équipe, il n'a pas vraiment d'opinion. Cependant, il travaille toujours au maximum de sa capacité, il persévère et effectue le travail qu'on lui demande.
+Maxime Aubin = 73
+Victor Turgeon = 72
+Louis Garceau = 71
 Coéquipier 5 = à évaluer</v>
       </c>
       <c r="E8" s="9"/>
@@ -4642,7 +4654,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D30" sqref="D30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,26 +4680,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -4714,15 +4726,15 @@
       <c r="B6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4763,14 +4775,14 @@
       <c r="C10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,36 +4799,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="52" t="str">
+      <c r="D12" s="55" t="str">
         <f>Temps!D6</f>
         <v>Jean-Philippe</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="52" t="str">
+      <c r="D13" s="55" t="str">
         <f>Temps!D7</f>
         <v>Belval</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4832,13 +4844,13 @@
         <f>VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="56">
         <f>IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>75</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+        <v>74</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4854,10 +4866,10 @@
         <f>VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4873,10 +4885,10 @@
         <f>VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4892,10 +4904,10 @@
         <f>VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4911,10 +4923,10 @@
         <f>VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4930,10 +4942,10 @@
         <f>VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4949,10 +4961,10 @@
         <f>VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4968,10 +4980,10 @@
         <f>VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4984,13 +4996,12 @@
         <v>25</v>
       </c>
       <c r="E22" s="45">
-        <f>VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5006,10 +5017,10 @@
         <f>VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5025,10 +5036,10 @@
         <f>VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,10 +5055,10 @@
         <f>VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5063,10 +5074,10 @@
         <f>VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5082,10 +5093,10 @@
         <f>VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5101,10 +5112,10 @@
         <f>VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5119,12 +5130,14 @@
       <c r="C30" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="D30" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5192,14 +5205,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F14:I28"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="F14:I28"/>
-    <mergeCell ref="D30:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E28">
     <cfRule type="colorScale" priority="2">
@@ -5239,7 +5252,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,26 +5278,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -5320,14 +5333,14 @@
       <c r="C7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5396,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5454,11 +5467,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E15" s="45">
-        <f>VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5473,11 +5485,10 @@
         <v>50</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E16" s="45">
-        <f>VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5606,11 +5617,10 @@
         <v>57</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E23" s="45">
-        <f>VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5668,7 +5678,9 @@
       <c r="C27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="58" t="s">
+        <v>95</v>
+      </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
@@ -5786,7 +5798,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,26 +5824,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -5867,14 +5879,14 @@
       <c r="C7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5930,7 +5942,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6001,11 +6013,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E15" s="45">
-        <f>VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6172,11 +6183,10 @@
         <v>58</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E24" s="45">
-        <f>VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -6215,12 +6225,14 @@
       <c r="C27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="D27" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6333,7 +6345,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6359,26 +6371,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -6414,14 +6426,14 @@
       <c r="C7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6477,7 +6489,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6586,11 +6598,11 @@
         <v>51</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E17" s="45">
         <f>VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6662,11 +6674,11 @@
         <v>55</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E21" s="45">
         <f>VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6762,12 +6774,14 @@
       <c r="C27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="D27" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6880,7 +6894,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6906,26 +6920,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -6961,14 +6975,14 @@
       <c r="C7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7024,7 +7038,7 @@
       </c>
       <c r="F11" s="60">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -7095,11 +7109,11 @@
         <v>49</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E15" s="45">
         <f>VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -7114,11 +7128,11 @@
         <v>50</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E16" s="45">
         <f>VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -7247,11 +7261,10 @@
         <v>57</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E23" s="45">
-        <f>VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -7309,12 +7322,14 @@
       <c r="C27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="D27" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -7427,7 +7442,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7453,26 +7468,26 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="15"/>
       <c r="J3" s="9"/>
     </row>
@@ -7508,14 +7523,14 @@
       <c r="C7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7826,12 +7841,12 @@
       <c r="C27" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
